--- a/SupplementaryTables/SupplementaryTable11.xlsx
+++ b/SupplementaryTables/SupplementaryTable11.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="79">
   <si>
     <t>description</t>
   </si>
@@ -136,15 +136,15 @@
     <t>Epilepsy</t>
   </si>
   <si>
+    <t>Mental Disorders</t>
+  </si>
+  <si>
+    <t>Bipolar Disorder</t>
+  </si>
+  <si>
     <t>Tremor</t>
   </si>
   <si>
-    <t>Mental Disorders</t>
-  </si>
-  <si>
-    <t>Bipolar Disorder</t>
-  </si>
-  <si>
     <t>Epilepsy, Generalized</t>
   </si>
   <si>
@@ -193,49 +193,52 @@
     <t>CHRNA2</t>
   </si>
   <si>
+    <t>GABRB2</t>
+  </si>
+  <si>
+    <t>CPLX1</t>
+  </si>
+  <si>
+    <t>NEFM</t>
+  </si>
+  <si>
+    <t>GRID1</t>
+  </si>
+  <si>
+    <t>GABBR2</t>
+  </si>
+  <si>
+    <t>ZNF365</t>
+  </si>
+  <si>
+    <t>GRM4</t>
+  </si>
+  <si>
+    <t>IL1RAPL1</t>
+  </si>
+  <si>
+    <t>OLIG2</t>
+  </si>
+  <si>
+    <t>CUX2</t>
+  </si>
+  <si>
+    <t>SNCB</t>
+  </si>
+  <si>
+    <t>RASGRF1</t>
+  </si>
+  <si>
+    <t>TRPC3</t>
+  </si>
+  <si>
+    <t>TUBA8</t>
+  </si>
+  <si>
+    <t>GNAL</t>
+  </si>
+  <si>
     <t>CNTN2</t>
-  </si>
-  <si>
-    <t>CPLX1</t>
-  </si>
-  <si>
-    <t>NEFM</t>
-  </si>
-  <si>
-    <t>GRID1</t>
-  </si>
-  <si>
-    <t>GABBR2</t>
-  </si>
-  <si>
-    <t>ZNF365</t>
-  </si>
-  <si>
-    <t>GRM4</t>
-  </si>
-  <si>
-    <t>IL1RAPL1</t>
-  </si>
-  <si>
-    <t>OLIG2</t>
-  </si>
-  <si>
-    <t>CUX2</t>
-  </si>
-  <si>
-    <t>SNCB</t>
-  </si>
-  <si>
-    <t>RASGRF1</t>
-  </si>
-  <si>
-    <t>TRPC3</t>
-  </si>
-  <si>
-    <t>TUBA8</t>
-  </si>
-  <si>
-    <t>GNAL</t>
   </si>
   <si>
     <t>HS6ST3</t>
@@ -338,13 +341,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12.225878833208675</v>
+        <v>12.403065482965324</v>
       </c>
       <c r="C2">
-        <v>1.3256253872384605e-09</v>
+        <v>1.129852655878949e-09</v>
       </c>
       <c r="D2">
-        <v>5.7610707884236945e-06</v>
+        <v>4.9804083976923152e-06</v>
       </c>
     </row>
     <row r="3">
@@ -352,13 +355,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.247363374880152</v>
+        <v>14.453846902052328</v>
       </c>
       <c r="C3">
-        <v>1.7980870126166337e-09</v>
+        <v>1.5544345810525328e-09</v>
       </c>
       <c r="D3">
-        <v>5.7610707884236945e-06</v>
+        <v>4.9804083976923152e-06</v>
       </c>
     </row>
     <row r="4">
@@ -366,13 +369,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.080079090459714</v>
+        <v>8.1971816859736233</v>
       </c>
       <c r="C4">
-        <v>9.7304945878562421e-08</v>
+        <v>8.3440375275856127e-08</v>
       </c>
       <c r="D4">
-        <v>0.00020784336439660933</v>
+        <v>0.00017822864158922869</v>
       </c>
     </row>
     <row r="5">
@@ -380,13 +383,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12.487394957983193</v>
+        <v>12.668371696504689</v>
       </c>
       <c r="C5">
-        <v>2.3444447272424895e-07</v>
+        <v>2.0924988453074889e-07</v>
       </c>
       <c r="D5">
-        <v>0.00037558004530424682</v>
+        <v>0.00033521831501825972</v>
       </c>
     </row>
     <row r="6">
@@ -394,13 +397,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11.321904761904763</v>
+        <v>11.485990338164251</v>
       </c>
       <c r="C6">
-        <v>4.971301160727748e-07</v>
+        <v>4.4407733468254662e-07</v>
       </c>
       <c r="D6">
-        <v>0.00063712195675886814</v>
+        <v>0.00056912951212915173</v>
       </c>
     </row>
     <row r="7">
@@ -408,13 +411,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10.886446886446887</v>
+        <v>11.044221479004088</v>
       </c>
       <c r="C7">
-        <v>6.7028201422569822e-07</v>
+        <v>5.9896538961989876e-07</v>
       </c>
       <c r="D7">
-        <v>0.0007158611911930457</v>
+        <v>0.00063969503611405187</v>
       </c>
     </row>
     <row r="8">
@@ -422,13 +425,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8.7640891218872863</v>
+        <v>8.8911049062624645</v>
       </c>
       <c r="C8">
-        <v>7.9897096783021482e-07</v>
+        <v>7.051358832388388e-07</v>
       </c>
       <c r="D8">
-        <v>0.00073140085169371663</v>
+        <v>0.00064550153425635415</v>
       </c>
     </row>
     <row r="9">
@@ -436,13 +439,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>44.691729323308273</v>
+        <v>45.3394355453852</v>
       </c>
       <c r="C9">
-        <v>1.6589589795223958e-06</v>
+        <v>1.5654276217524909e-06</v>
       </c>
       <c r="D9">
-        <v>0.001328826142597439</v>
+        <v>0.0012539075250237453</v>
       </c>
     </row>
     <row r="10">
@@ -450,13 +453,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>11.172932330827068</v>
+        <v>11.3348588863463</v>
       </c>
       <c r="C10">
-        <v>2.944512869307303e-06</v>
+        <v>2.6697993253943508e-06</v>
       </c>
       <c r="D10">
-        <v>0.0020964931629467998</v>
+        <v>0.0019008971196807778</v>
       </c>
     </row>
     <row r="11">
@@ -464,13 +467,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13.966165413533835</v>
+        <v>14.168573607932876</v>
       </c>
       <c r="C11">
-        <v>2.8602741872996162e-05</v>
+        <v>2.6665485336030414e-05</v>
       </c>
       <c r="D11">
-        <v>0.01832863699221594</v>
+        <v>0.017087243003328288</v>
       </c>
     </row>
     <row r="12">
@@ -478,13 +481,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.2035067548146015</v>
+        <v>3.2499343889423495</v>
       </c>
       <c r="C12">
-        <v>4.7989948772420021e-05</v>
+        <v>4.0155112984274766e-05</v>
       </c>
       <c r="D12">
-        <v>0.027956326521242497</v>
+        <v>0.023392178545748425</v>
       </c>
     </row>
     <row r="13">
@@ -492,13 +495,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11.926163723916533</v>
+        <v>12.099006676437062</v>
       </c>
       <c r="C13">
-        <v>6.1293103368331714e-05</v>
+        <v>5.7183054784415432e-05</v>
       </c>
       <c r="D13">
-        <v>0.032730517198689135</v>
+        <v>0.030535751254877841</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +910,7 @@
     <col min="1" max="1" width="24.5703125" customWidth="true"/>
     <col min="2" max="2" width="16" customWidth="true"/>
     <col min="3" max="3" width="15.5703125" customWidth="true"/>
-    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -929,13 +932,13 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>8.3249299719887961</v>
+        <v>9.0186741363211969</v>
       </c>
       <c r="C2">
-        <v>1.914737790542631e-08</v>
+        <v>1.7597521217993517e-09</v>
       </c>
       <c r="D2">
-        <v>0.0001226963976179718</v>
+        <v>1.1276491596490246e-05</v>
       </c>
     </row>
     <row r="3">
@@ -943,13 +946,13 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>10.926470588235295</v>
+        <v>4.2967380500587335</v>
       </c>
       <c r="C3">
-        <v>3.4791498066955029e-06</v>
+        <v>7.1848307237054598e-07</v>
       </c>
       <c r="D3">
-        <v>0.0079333218228088143</v>
+        <v>0.0020286813867826936</v>
       </c>
     </row>
     <row r="4">
@@ -957,13 +960,13 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>4.0281919219300626</v>
+        <v>4.8465928945835763</v>
       </c>
       <c r="C4">
-        <v>3.7141019769704187e-06</v>
+        <v>9.4975720354995019e-07</v>
       </c>
       <c r="D4">
-        <v>0.0079333218228088143</v>
+        <v>0.0020286813867826936</v>
       </c>
     </row>
     <row r="5">
@@ -971,41 +974,41 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>4.5004076878276065</v>
+        <v>10.926470588235295</v>
       </c>
       <c r="C5">
-        <v>5.4515243288477677e-06</v>
+        <v>3.4791498066955029e-06</v>
       </c>
       <c r="D5">
-        <v>0.0087333419748141239</v>
+        <v>0.0048818305459004561</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>10.813826561552457</v>
+        <v>5.0796182879931644</v>
       </c>
       <c r="C6">
-        <v>1.9101749639705012e-05</v>
+        <v>3.8091686531682711e-06</v>
       </c>
       <c r="D6">
-        <v>0.024017877953592226</v>
+        <v>0.0048818305459004561</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>4.6563167639937335</v>
+        <v>10.813826561552457</v>
       </c>
       <c r="C7">
-        <v>2.248864976928111e-05</v>
+        <v>1.9101749639705012e-05</v>
       </c>
       <c r="D7">
-        <v>0.024017877953592226</v>
+        <v>0.020400668615204953</v>
       </c>
     </row>
     <row r="8">
@@ -1056,15 +1059,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="true"/>
-    <col min="2" max="2" width="7.5703125" customWidth="true"/>
-    <col min="3" max="3" width="16.28515625" customWidth="true"/>
-    <col min="4" max="4" width="15.42578125" customWidth="true"/>
-    <col min="5" max="5" width="20.28515625" customWidth="true"/>
-    <col min="6" max="6" width="13.5703125" customWidth="true"/>
+    <col min="2" max="2" width="16.28515625" customWidth="true"/>
+    <col min="3" max="3" width="15.42578125" customWidth="true"/>
+    <col min="4" max="4" width="7.5703125" customWidth="true"/>
+    <col min="5" max="5" width="13.5703125" customWidth="true"/>
+    <col min="6" max="6" width="20.28515625" customWidth="true"/>
     <col min="7" max="7" width="24.5703125" customWidth="true"/>
     <col min="8" max="8" width="20.140625" customWidth="true"/>
     <col min="9" max="9" width="11.42578125" customWidth="true"/>
@@ -1084,10 +1087,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>43</v>
@@ -1104,19 +1107,19 @@
         <v>46</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>46</v>
@@ -1133,19 +1136,19 @@
         <v>47</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>47</v>
@@ -1154,7 +1157,7 @@
         <v>51</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -1162,22 +1165,22 @@
         <v>48</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>64</v>
@@ -1191,19 +1194,19 @@
         <v>49</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>51</v>
@@ -1220,19 +1223,19 @@
         <v>50</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>52</v>
@@ -1249,19 +1252,19 @@
         <v>51</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="E7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>53</v>
@@ -1275,15 +1278,15 @@
         <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -1297,13 +1300,13 @@
       <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="C9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>65</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -1314,30 +1317,30 @@
       <c r="A10" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="B10" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="B11" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="C11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -1348,14 +1351,14 @@
       <c r="A12" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="B12" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="C12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>73</v>
+      <c r="E12" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>72</v>
@@ -1365,32 +1368,46 @@
       <c r="A13" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="B13" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15">
+      <c r="B15" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="C15" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
